--- a/Enviar.xlsx
+++ b/Enviar.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zerom\Documents\GitHubProjetos\Automação_Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zerom\Documents\GitHubProjetos\Automação_Python\Automacao_Mensagens_whattsapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D13B348-C54D-43EA-B1B8-EDDB03C72CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B4E382-100A-413E-96D5-D1E1F4221795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F81C85CE-3BCD-4B33-8C8B-0A39913C8743}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Pessoa</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Leda</t>
   </si>
   <si>
-    <t>Mãe</t>
-  </si>
-  <si>
     <t>Rui</t>
   </si>
   <si>
@@ -66,38 +63,29 @@
     <t>Thiago</t>
   </si>
   <si>
-    <t>123456789</t>
-  </si>
-  <si>
-    <t>123456790</t>
-  </si>
-  <si>
-    <t>123456791</t>
-  </si>
-  <si>
-    <t>123456792</t>
-  </si>
-  <si>
-    <t>123456793</t>
-  </si>
-  <si>
-    <t>123456794</t>
+    <t>558699257881</t>
+  </si>
+  <si>
+    <t>558698028993</t>
+  </si>
+  <si>
+    <t>558694553833</t>
+  </si>
+  <si>
+    <t>558694528345</t>
+  </si>
+  <si>
+    <t>558695575023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -441,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53A7C94-CFFA-47EA-8C25-089A72CB0D85}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,21 +456,21 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -490,10 +478,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -501,10 +489,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -512,28 +500,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Enviar.xlsx
+++ b/Enviar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zerom\Documents\GitHubProjetos\Automação_Python\Automacao_Mensagens_whattsapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B4E382-100A-413E-96D5-D1E1F4221795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F29A09-F9B5-450C-A044-5CD4F96D2E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F81C85CE-3BCD-4B33-8C8B-0A39913C8743}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Pessoa</t>
   </si>
@@ -63,19 +63,7 @@
     <t>Thiago</t>
   </si>
   <si>
-    <t>558699257881</t>
-  </si>
-  <si>
-    <t>558698028993</t>
-  </si>
-  <si>
-    <t>558694553833</t>
-  </si>
-  <si>
-    <t>558694528345</t>
-  </si>
-  <si>
-    <t>558695575023</t>
+    <t>55123456789</t>
   </si>
 </sst>
 </file>
@@ -432,7 +420,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,7 +455,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -478,7 +466,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -489,7 +477,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -500,7 +488,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
